--- a/精益工场.xlsx
+++ b/精益工场.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\鸿烈\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\鸿烈\Documents\github\-Saas-\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6409248-3AE8-4B49-BCAA-171364DF8336}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08414B73-4DE8-46B1-B305-DC086F8DD417}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{6657B814-8A2E-4A74-B281-01BA678153F2}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="2" xr2:uid="{6657B814-8A2E-4A74-B281-01BA678153F2}"/>
   </bookViews>
   <sheets>
     <sheet name="Lean Canvas" sheetId="7" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="Vali-Plan" sheetId="10" r:id="rId4"/>
     <sheet name="Exp" sheetId="11" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +28,221 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>微信saas服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鸿烈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.线下实体行业获客流量减少</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    而线上流量越来越扩大化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.综合型电商平台（天猫/京东）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.社交电商（有赞/微盟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.线下连锁实体商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.线下个体门店商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.具备一定运营能力的品牌商家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.saas服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.更加实用化的服务品类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.运营+营销服务模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.营销托管模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.客户数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.客户服务年限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.托管营销收益</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.微擎框架付费（￥8800）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.阿里服务器（￥20000/年）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.微擎产品（￥35W/55款）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.人力成本-技术1、策划1、文案1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥6000*3*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.营销托管收入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.行业SaaS年收入 ￥0/年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>￥100/场*10商家/周*4/月*12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.云端运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.城市专属商圈营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智慧城市，有你一份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaaS+专属活动营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.地推</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.海报广告</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaaS产品服务对象分析</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.线下实体客户流量减少，获客困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.综合电商平台（天猫、京东）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.社交电商（有赞，微盟）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.线上流量剧增</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.通过开辟线上渠道，改善运营境况</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.通过线上可以引导线下流量导入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.平台应用标准化，行业适用性不强</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.营销推广方案欠佳，外包不具针对性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.商家本身人力成本的考虑，没有专门的电商运营人力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.针对电商运营知识，体系认识不足，实现落地困难</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.专门电商运营人力成本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.电商相关配套服务成本（商品图文案，促销）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.提供SaaS行业平台</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.提供城市商圈营销活动托管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.提供电商运营辅助服务（文案）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.平台服务期限1年/3年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.提供￥100/场/周的商圈营销活动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.提供电商文案辅助￥100/10内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>云端运营</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>线上下融合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,6 +262,14 @@
       <b/>
       <sz val="14"/>
       <color rgb="FF3333FF"/>
+      <name val="迷你简硬笔楷书"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="迷你简硬笔楷书"/>
       <family val="4"/>
       <charset val="134"/>
@@ -83,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -91,6 +311,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -320,8 +552,1589 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8747A46F-83E6-49D6-89F3-557F6B68280B}">
   <dimension ref="A1:Z53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q28" sqref="Q28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="2" width="9.06640625" style="2"/>
+    <col min="3" max="3" width="9.73046875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="9.06640625" style="2"/>
+    <col min="7" max="7" width="14.06640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="17" width="9.06640625" style="2"/>
+    <col min="18" max="18" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="9.06640625" style="2"/>
+    <col min="23" max="23" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.06640625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="1"/>
+      <c r="Q2" s="1"/>
+      <c r="R2" s="1"/>
+      <c r="S2" s="1"/>
+      <c r="T2" s="1"/>
+      <c r="U2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Y2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+      <c r="R3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="T3" s="1"/>
+      <c r="U3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="W3" s="3">
+        <v>43529</v>
+      </c>
+      <c r="X3" s="1"/>
+      <c r="Y3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+      <c r="T7" s="1"/>
+      <c r="U7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+      <c r="T8" s="1"/>
+      <c r="U8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A11" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1"/>
+      <c r="S13" s="1"/>
+      <c r="T13" s="1"/>
+      <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="W13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Y13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="W14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Y14" s="1"/>
+      <c r="Z14" s="1"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="1"/>
+      <c r="X15" s="1"/>
+      <c r="Y15" s="1"/>
+      <c r="Z15" s="1"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="1"/>
+      <c r="X16" s="1"/>
+      <c r="Y16" s="1"/>
+      <c r="Z16" s="1"/>
+    </row>
+    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+      <c r="Z17" s="1"/>
+    </row>
+    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+      <c r="Z18" s="1"/>
+    </row>
+    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+      <c r="Z19" s="1"/>
+    </row>
+    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+      <c r="Z20" s="1"/>
+    </row>
+    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+      <c r="Z21" s="1"/>
+    </row>
+    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+      <c r="Z22" s="1"/>
+    </row>
+    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+    </row>
+    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+    </row>
+    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R26" s="1"/>
+      <c r="S26" s="1"/>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="W26" s="1"/>
+      <c r="X26" s="1"/>
+      <c r="Y26" s="1"/>
+      <c r="Z26" s="1"/>
+    </row>
+    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="R27" s="1"/>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="1"/>
+      <c r="V27" s="1"/>
+      <c r="W27" s="1"/>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="1"/>
+      <c r="Z27" s="1"/>
+    </row>
+    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+      <c r="V28" s="1"/>
+      <c r="W28" s="1"/>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="1"/>
+      <c r="Z28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B29" s="1"/>
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H29" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V29" s="1"/>
+      <c r="W29" s="1"/>
+      <c r="X29" s="1"/>
+      <c r="Y29" s="1"/>
+      <c r="Z29" s="1"/>
+    </row>
+    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+      <c r="V30" s="1"/>
+      <c r="W30" s="1"/>
+      <c r="X30" s="1"/>
+      <c r="Y30" s="1"/>
+      <c r="Z30" s="1"/>
+    </row>
+    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="1"/>
+      <c r="S31" s="1"/>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+      <c r="V31" s="1"/>
+      <c r="W31" s="1"/>
+      <c r="X31" s="1"/>
+      <c r="Y31" s="1"/>
+      <c r="Z31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="1"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
+      <c r="S32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="1"/>
+      <c r="V32" s="1"/>
+      <c r="W32" s="1"/>
+      <c r="X32" s="1"/>
+      <c r="Y32" s="1"/>
+      <c r="Z32" s="1"/>
+    </row>
+    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="1"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="1"/>
+      <c r="W33" s="1"/>
+      <c r="X33" s="1"/>
+      <c r="Y33" s="1"/>
+      <c r="Z33" s="1"/>
+    </row>
+    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="1"/>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+      <c r="K34" s="1"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="1"/>
+      <c r="S34" s="1"/>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="1"/>
+      <c r="X34" s="1"/>
+      <c r="Y34" s="1"/>
+      <c r="Z34" s="1"/>
+    </row>
+    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="1"/>
+      <c r="I35" s="1"/>
+      <c r="J35" s="1"/>
+      <c r="K35" s="1"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="1"/>
+      <c r="S35" s="1"/>
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+      <c r="V35" s="1"/>
+      <c r="W35" s="1"/>
+      <c r="X35" s="1"/>
+      <c r="Y35" s="1"/>
+      <c r="Z35" s="1"/>
+    </row>
+    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
+      <c r="W36" s="1"/>
+      <c r="X36" s="1"/>
+      <c r="Y36" s="1"/>
+      <c r="Z36" s="1"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="1"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="1"/>
+      <c r="S37" s="1"/>
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+      <c r="V37" s="1"/>
+      <c r="W37" s="1"/>
+      <c r="X37" s="1"/>
+      <c r="Y37" s="1"/>
+      <c r="Z37" s="1"/>
+    </row>
+    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="1"/>
+      <c r="S38" s="1"/>
+      <c r="T38" s="1"/>
+      <c r="U38" s="1"/>
+      <c r="V38" s="1"/>
+      <c r="W38" s="1"/>
+      <c r="X38" s="1"/>
+      <c r="Y38" s="1"/>
+      <c r="Z38" s="1"/>
+    </row>
+    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="1"/>
+      <c r="S39" s="1"/>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1"/>
+      <c r="V39" s="1"/>
+      <c r="W39" s="1"/>
+      <c r="X39" s="1"/>
+      <c r="Y39" s="1"/>
+      <c r="Z39" s="1"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1">
+        <f>100*10*4*12</f>
+        <v>48000</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="1"/>
+      <c r="S40" s="1"/>
+      <c r="T40" s="1"/>
+      <c r="U40" s="1"/>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
+      <c r="Y40" s="1"/>
+      <c r="Z40" s="1"/>
+    </row>
+    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A41" s="1"/>
+      <c r="B41" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="1"/>
+      <c r="G41" s="1"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="1"/>
+      <c r="S41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
+      <c r="X41" s="1"/>
+      <c r="Y41" s="1"/>
+      <c r="Z41" s="1"/>
+    </row>
+    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+      <c r="G42" s="5">
+        <f>6000*3*12</f>
+        <v>216000</v>
+      </c>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="1"/>
+      <c r="S42" s="1"/>
+      <c r="T42" s="1"/>
+      <c r="U42" s="1"/>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
+      <c r="Y42" s="1"/>
+      <c r="Z42" s="1"/>
+    </row>
+    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A43" s="1"/>
+      <c r="B43" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+      <c r="O43" s="1"/>
+      <c r="P43" s="1"/>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="1"/>
+      <c r="S43" s="1"/>
+      <c r="T43" s="1"/>
+      <c r="U43" s="1"/>
+      <c r="V43" s="1"/>
+      <c r="W43" s="1"/>
+      <c r="X43" s="1"/>
+      <c r="Y43" s="1"/>
+      <c r="Z43" s="1"/>
+    </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A44" s="1"/>
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="F44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
+      <c r="T44" s="1"/>
+      <c r="U44" s="1"/>
+      <c r="V44" s="1"/>
+      <c r="W44" s="1"/>
+      <c r="X44" s="1"/>
+      <c r="Y44" s="1"/>
+      <c r="Z44" s="1"/>
+    </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A45" s="1"/>
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="F45" s="1"/>
+      <c r="G45" s="1"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="1"/>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="1"/>
+      <c r="Z45" s="1"/>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A46" s="1"/>
+      <c r="B46" s="1"/>
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="F46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="H46" s="1"/>
+      <c r="I46" s="1"/>
+      <c r="J46" s="1"/>
+      <c r="K46" s="1"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="1"/>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="1"/>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="1"/>
+      <c r="Z46" s="1"/>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A47" s="1"/>
+      <c r="B47" s="1"/>
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="F47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="H47" s="1"/>
+      <c r="I47" s="1"/>
+      <c r="J47" s="1"/>
+      <c r="K47" s="1"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="1"/>
+      <c r="T47" s="1"/>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="1"/>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="1"/>
+      <c r="Z47" s="1"/>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A48" s="1"/>
+      <c r="B48" s="1"/>
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="F48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="H48" s="1"/>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="1"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="1"/>
+      <c r="T48" s="1"/>
+      <c r="U48" s="1"/>
+      <c r="V48" s="1"/>
+      <c r="W48" s="1"/>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="1"/>
+      <c r="Z48" s="1"/>
+    </row>
+    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A49" s="1"/>
+      <c r="B49" s="1"/>
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="F49" s="1"/>
+      <c r="G49" s="1"/>
+      <c r="H49" s="1"/>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
+      <c r="T49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="1"/>
+      <c r="W49" s="1"/>
+      <c r="X49" s="1"/>
+      <c r="Y49" s="1"/>
+      <c r="Z49" s="1"/>
+    </row>
+    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A50" s="1"/>
+      <c r="B50" s="1"/>
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="F50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="1"/>
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="1"/>
+      <c r="S50" s="1"/>
+      <c r="T50" s="1"/>
+      <c r="U50" s="1"/>
+      <c r="V50" s="1"/>
+      <c r="W50" s="1"/>
+      <c r="X50" s="1"/>
+      <c r="Y50" s="1"/>
+      <c r="Z50" s="1"/>
+    </row>
+    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A51" s="1"/>
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="1"/>
+      <c r="S51" s="1"/>
+      <c r="T51" s="1"/>
+      <c r="U51" s="1"/>
+      <c r="V51" s="1"/>
+      <c r="W51" s="1"/>
+      <c r="X51" s="1"/>
+      <c r="Y51" s="1"/>
+      <c r="Z51" s="1"/>
+    </row>
+    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A52" s="1"/>
+      <c r="B52" s="1"/>
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="F52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="H52" s="1"/>
+      <c r="I52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
+      <c r="W52" s="1"/>
+      <c r="X52" s="1"/>
+      <c r="Y52" s="1"/>
+      <c r="Z52" s="1"/>
+    </row>
+    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
+      <c r="A53" s="1"/>
+      <c r="B53" s="1"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="1"/>
+      <c r="G53" s="1"/>
+      <c r="H53" s="1"/>
+      <c r="I53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+      <c r="R53" s="1"/>
+      <c r="S53" s="1"/>
+      <c r="T53" s="1"/>
+      <c r="U53" s="1"/>
+      <c r="V53" s="1"/>
+      <c r="W53" s="1"/>
+      <c r="X53" s="1"/>
+      <c r="Y53" s="1"/>
+      <c r="Z53" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <picture r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C076954A-A42D-4C8A-9A49-C0D2A0D39C78}">
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1785,1511 +3598,6 @@
       <c r="Y52" s="1"/>
       <c r="Z52" s="1"/>
     </row>
-    <row r="53" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A53" s="1"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-      <c r="G53" s="1"/>
-      <c r="H53" s="1"/>
-      <c r="I53" s="1"/>
-      <c r="J53" s="1"/>
-      <c r="K53" s="1"/>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
-      <c r="W53" s="1"/>
-      <c r="X53" s="1"/>
-      <c r="Y53" s="1"/>
-      <c r="Z53" s="1"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <picture r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C076954A-A42D-4C8A-9A49-C0D2A0D39C78}">
-  <dimension ref="A1:Z52"/>
-  <sheetViews>
-    <sheetView topLeftCell="D12" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="16384" width="9.06640625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
-      <c r="Z1" s="1"/>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Y2" s="1"/>
-      <c r="Z2" s="1"/>
-    </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
-      <c r="W3" s="1"/>
-      <c r="X3" s="1"/>
-      <c r="Y3" s="1"/>
-      <c r="Z3" s="1"/>
-    </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
-      <c r="V4" s="1"/>
-      <c r="W4" s="1"/>
-      <c r="X4" s="1"/>
-      <c r="Y4" s="1"/>
-      <c r="Z4" s="1"/>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
-      <c r="V5" s="1"/>
-      <c r="W5" s="1"/>
-      <c r="X5" s="1"/>
-      <c r="Y5" s="1"/>
-      <c r="Z5" s="1"/>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-    </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-    </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-    </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-    </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-    </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-    </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-    </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
-      <c r="V17" s="1"/>
-      <c r="W17" s="1"/>
-      <c r="X17" s="1"/>
-      <c r="Y17" s="1"/>
-      <c r="Z17" s="1"/>
-    </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
-      <c r="V18" s="1"/>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="1"/>
-      <c r="Z18" s="1"/>
-    </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="1"/>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="1"/>
-      <c r="Z19" s="1"/>
-    </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="1"/>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="1"/>
-      <c r="Z20" s="1"/>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="W22" s="1"/>
-      <c r="X22" s="1"/>
-      <c r="Y22" s="1"/>
-      <c r="Z22" s="1"/>
-    </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
-    </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
-    </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-    </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="1"/>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="1"/>
-      <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="W26" s="1"/>
-      <c r="X26" s="1"/>
-      <c r="Y26" s="1"/>
-      <c r="Z26" s="1"/>
-    </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="1"/>
-      <c r="S27" s="1"/>
-      <c r="T27" s="1"/>
-      <c r="U27" s="1"/>
-      <c r="V27" s="1"/>
-      <c r="W27" s="1"/>
-      <c r="X27" s="1"/>
-      <c r="Y27" s="1"/>
-      <c r="Z27" s="1"/>
-    </row>
-    <row r="28" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="1"/>
-      <c r="S28" s="1"/>
-      <c r="T28" s="1"/>
-      <c r="U28" s="1"/>
-      <c r="V28" s="1"/>
-      <c r="W28" s="1"/>
-      <c r="X28" s="1"/>
-      <c r="Y28" s="1"/>
-      <c r="Z28" s="1"/>
-    </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="1"/>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="1"/>
-      <c r="S29" s="1"/>
-      <c r="T29" s="1"/>
-      <c r="U29" s="1"/>
-      <c r="V29" s="1"/>
-      <c r="W29" s="1"/>
-      <c r="X29" s="1"/>
-      <c r="Y29" s="1"/>
-      <c r="Z29" s="1"/>
-    </row>
-    <row r="30" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="1"/>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="1"/>
-      <c r="S30" s="1"/>
-      <c r="T30" s="1"/>
-      <c r="U30" s="1"/>
-      <c r="V30" s="1"/>
-      <c r="W30" s="1"/>
-      <c r="X30" s="1"/>
-      <c r="Y30" s="1"/>
-      <c r="Z30" s="1"/>
-    </row>
-    <row r="31" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="1"/>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="1"/>
-      <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
-      <c r="Y31" s="1"/>
-      <c r="Z31" s="1"/>
-    </row>
-    <row r="32" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="1"/>
-      <c r="S32" s="1"/>
-      <c r="T32" s="1"/>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
-      <c r="X32" s="1"/>
-      <c r="Y32" s="1"/>
-      <c r="Z32" s="1"/>
-    </row>
-    <row r="33" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-      <c r="S33" s="1"/>
-      <c r="T33" s="1"/>
-      <c r="U33" s="1"/>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
-      <c r="Y33" s="1"/>
-      <c r="Z33" s="1"/>
-    </row>
-    <row r="34" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="1"/>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="1"/>
-      <c r="S34" s="1"/>
-      <c r="T34" s="1"/>
-      <c r="U34" s="1"/>
-      <c r="V34" s="1"/>
-      <c r="W34" s="1"/>
-      <c r="X34" s="1"/>
-      <c r="Y34" s="1"/>
-      <c r="Z34" s="1"/>
-    </row>
-    <row r="35" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
-      <c r="K35" s="1"/>
-      <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="1"/>
-      <c r="U35" s="1"/>
-      <c r="V35" s="1"/>
-      <c r="W35" s="1"/>
-      <c r="X35" s="1"/>
-      <c r="Y35" s="1"/>
-      <c r="Z35" s="1"/>
-    </row>
-    <row r="36" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1"/>
-      <c r="J36" s="1"/>
-      <c r="K36" s="1"/>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="1"/>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="1"/>
-      <c r="V36" s="1"/>
-      <c r="W36" s="1"/>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="1"/>
-      <c r="Z36" s="1"/>
-    </row>
-    <row r="37" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-      <c r="G37" s="1"/>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="1"/>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="1"/>
-      <c r="V37" s="1"/>
-      <c r="W37" s="1"/>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="1"/>
-      <c r="Z37" s="1"/>
-    </row>
-    <row r="38" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-      <c r="G38" s="1"/>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
-      <c r="K38" s="1"/>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="1"/>
-      <c r="V38" s="1"/>
-      <c r="W38" s="1"/>
-      <c r="X38" s="1"/>
-      <c r="Y38" s="1"/>
-      <c r="Z38" s="1"/>
-    </row>
-    <row r="39" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-      <c r="G39" s="1"/>
-      <c r="H39" s="1"/>
-      <c r="I39" s="1"/>
-      <c r="J39" s="1"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="1"/>
-      <c r="U39" s="1"/>
-      <c r="V39" s="1"/>
-      <c r="W39" s="1"/>
-      <c r="X39" s="1"/>
-      <c r="Y39" s="1"/>
-      <c r="Z39" s="1"/>
-    </row>
-    <row r="40" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-      <c r="G40" s="1"/>
-      <c r="H40" s="1"/>
-      <c r="I40" s="1"/>
-      <c r="J40" s="1"/>
-      <c r="K40" s="1"/>
-      <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="1"/>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
-      <c r="T40" s="1"/>
-      <c r="U40" s="1"/>
-      <c r="V40" s="1"/>
-      <c r="W40" s="1"/>
-      <c r="X40" s="1"/>
-      <c r="Y40" s="1"/>
-      <c r="Z40" s="1"/>
-    </row>
-    <row r="41" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A41" s="1"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-      <c r="G41" s="1"/>
-      <c r="H41" s="1"/>
-      <c r="I41" s="1"/>
-      <c r="J41" s="1"/>
-      <c r="K41" s="1"/>
-      <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="1"/>
-      <c r="S41" s="1"/>
-      <c r="T41" s="1"/>
-      <c r="U41" s="1"/>
-      <c r="V41" s="1"/>
-      <c r="W41" s="1"/>
-      <c r="X41" s="1"/>
-      <c r="Y41" s="1"/>
-      <c r="Z41" s="1"/>
-    </row>
-    <row r="42" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-      <c r="G42" s="1"/>
-      <c r="H42" s="1"/>
-      <c r="I42" s="1"/>
-      <c r="J42" s="1"/>
-      <c r="K42" s="1"/>
-      <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="1"/>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="1"/>
-      <c r="S42" s="1"/>
-      <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="1"/>
-      <c r="W42" s="1"/>
-      <c r="X42" s="1"/>
-      <c r="Y42" s="1"/>
-      <c r="Z42" s="1"/>
-    </row>
-    <row r="43" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A43" s="1"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-      <c r="G43" s="1"/>
-      <c r="H43" s="1"/>
-      <c r="I43" s="1"/>
-      <c r="J43" s="1"/>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="1"/>
-      <c r="S43" s="1"/>
-      <c r="T43" s="1"/>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
-      <c r="W43" s="1"/>
-      <c r="X43" s="1"/>
-      <c r="Y43" s="1"/>
-      <c r="Z43" s="1"/>
-    </row>
-    <row r="44" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A44" s="1"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-      <c r="G44" s="1"/>
-      <c r="H44" s="1"/>
-      <c r="I44" s="1"/>
-      <c r="J44" s="1"/>
-      <c r="K44" s="1"/>
-      <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="1"/>
-      <c r="S44" s="1"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
-      <c r="X44" s="1"/>
-      <c r="Y44" s="1"/>
-      <c r="Z44" s="1"/>
-    </row>
-    <row r="45" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A45" s="1"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-      <c r="G45" s="1"/>
-      <c r="H45" s="1"/>
-      <c r="I45" s="1"/>
-      <c r="J45" s="1"/>
-      <c r="K45" s="1"/>
-      <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="1"/>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="1"/>
-      <c r="S45" s="1"/>
-      <c r="T45" s="1"/>
-      <c r="U45" s="1"/>
-      <c r="V45" s="1"/>
-      <c r="W45" s="1"/>
-      <c r="X45" s="1"/>
-      <c r="Y45" s="1"/>
-      <c r="Z45" s="1"/>
-    </row>
-    <row r="46" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A46" s="1"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-      <c r="G46" s="1"/>
-      <c r="H46" s="1"/>
-      <c r="I46" s="1"/>
-      <c r="J46" s="1"/>
-      <c r="K46" s="1"/>
-      <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="1"/>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="1"/>
-      <c r="S46" s="1"/>
-      <c r="T46" s="1"/>
-      <c r="U46" s="1"/>
-      <c r="V46" s="1"/>
-      <c r="W46" s="1"/>
-      <c r="X46" s="1"/>
-      <c r="Y46" s="1"/>
-      <c r="Z46" s="1"/>
-    </row>
-    <row r="47" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A47" s="1"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-      <c r="G47" s="1"/>
-      <c r="H47" s="1"/>
-      <c r="I47" s="1"/>
-      <c r="J47" s="1"/>
-      <c r="K47" s="1"/>
-      <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="1"/>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="1"/>
-      <c r="S47" s="1"/>
-      <c r="T47" s="1"/>
-      <c r="U47" s="1"/>
-      <c r="V47" s="1"/>
-      <c r="W47" s="1"/>
-      <c r="X47" s="1"/>
-      <c r="Y47" s="1"/>
-      <c r="Z47" s="1"/>
-    </row>
-    <row r="48" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A48" s="1"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-      <c r="G48" s="1"/>
-      <c r="H48" s="1"/>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-      <c r="K48" s="1"/>
-      <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="1"/>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="1"/>
-      <c r="S48" s="1"/>
-      <c r="T48" s="1"/>
-      <c r="U48" s="1"/>
-      <c r="V48" s="1"/>
-      <c r="W48" s="1"/>
-      <c r="X48" s="1"/>
-      <c r="Y48" s="1"/>
-      <c r="Z48" s="1"/>
-    </row>
-    <row r="49" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A49" s="1"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-      <c r="G49" s="1"/>
-      <c r="H49" s="1"/>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="1"/>
-      <c r="S49" s="1"/>
-      <c r="T49" s="1"/>
-      <c r="U49" s="1"/>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
-      <c r="X49" s="1"/>
-      <c r="Y49" s="1"/>
-      <c r="Z49" s="1"/>
-    </row>
-    <row r="50" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A50" s="1"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1"/>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-      <c r="G50" s="1"/>
-      <c r="H50" s="1"/>
-      <c r="I50" s="1"/>
-      <c r="J50" s="1"/>
-      <c r="K50" s="1"/>
-      <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="1"/>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="1"/>
-      <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
-      <c r="X50" s="1"/>
-      <c r="Y50" s="1"/>
-      <c r="Z50" s="1"/>
-    </row>
-    <row r="51" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A51" s="1"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1"/>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-      <c r="G51" s="1"/>
-      <c r="H51" s="1"/>
-      <c r="I51" s="1"/>
-      <c r="J51" s="1"/>
-      <c r="K51" s="1"/>
-      <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="1"/>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="1"/>
-      <c r="S51" s="1"/>
-      <c r="T51" s="1"/>
-      <c r="U51" s="1"/>
-      <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
-      <c r="X51" s="1"/>
-      <c r="Y51" s="1"/>
-      <c r="Z51" s="1"/>
-    </row>
-    <row r="52" spans="1:26" x14ac:dyDescent="0.4">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-      <c r="G52" s="1"/>
-      <c r="H52" s="1"/>
-      <c r="I52" s="1"/>
-      <c r="J52" s="1"/>
-      <c r="K52" s="1"/>
-      <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1"/>
-      <c r="P52" s="1"/>
-      <c r="Q52" s="1"/>
-      <c r="R52" s="1"/>
-      <c r="S52" s="1"/>
-      <c r="T52" s="1"/>
-      <c r="U52" s="1"/>
-      <c r="V52" s="1"/>
-      <c r="W52" s="1"/>
-      <c r="X52" s="1"/>
-      <c r="Y52" s="1"/>
-      <c r="Z52" s="1"/>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3301,13 +3609,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE96FB0-EC58-4E9B-B614-4871FC8E0A61}">
   <dimension ref="A1:AE83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="K5" workbookViewId="0">
+      <selection activeCell="W38" sqref="W38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="16384" width="9.06640625" style="2"/>
+    <col min="1" max="21" width="9.06640625" style="2"/>
+    <col min="22" max="22" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.06640625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" x14ac:dyDescent="0.4">
@@ -3394,11 +3704,15 @@
       <c r="O3" s="1"/>
       <c r="P3" s="1"/>
       <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
+      <c r="R3" s="1" t="s">
+        <v>30</v>
+      </c>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
       <c r="U3" s="1"/>
-      <c r="V3" s="1"/>
+      <c r="V3" s="3">
+        <v>43529</v>
+      </c>
       <c r="W3" s="1"/>
       <c r="X3" s="1"/>
       <c r="Y3" s="1"/>
@@ -3708,7 +4022,9 @@
     </row>
     <row r="13" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3716,7 +4032,9 @@
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
+      <c r="J13" s="1" t="s">
+        <v>35</v>
+      </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -3724,14 +4042,18 @@
       <c r="O13" s="1"/>
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
+      <c r="R13" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
       <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
+      <c r="Y13" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
@@ -3741,7 +4063,9 @@
     </row>
     <row r="14" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="B14" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
@@ -3749,7 +4073,9 @@
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
+      <c r="J14" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
@@ -3757,14 +4083,18 @@
       <c r="O14" s="1"/>
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
+      <c r="R14" s="1" t="s">
+        <v>44</v>
+      </c>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
       <c r="V14" s="1"/>
       <c r="W14" s="1"/>
       <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
+      <c r="Y14" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
@@ -3790,14 +4120,18 @@
       <c r="O15" s="1"/>
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
+      <c r="R15" s="1" t="s">
+        <v>45</v>
+      </c>
       <c r="S15" s="1"/>
       <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
       <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
+      <c r="Y15" s="1" t="s">
+        <v>48</v>
+      </c>
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
@@ -4038,7 +4372,9 @@
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
+      <c r="B23" s="1" t="s">
+        <v>32</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -4046,7 +4382,9 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
+      <c r="J23" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
@@ -4071,7 +4409,9 @@
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
+      <c r="B24" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -4079,7 +4419,9 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
@@ -4087,7 +4429,9 @@
       <c r="O24" s="1"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
+      <c r="R24" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="S24" s="1"/>
       <c r="T24" s="1"/>
       <c r="U24" s="1"/>
@@ -4120,7 +4464,9 @@
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
+      <c r="R25" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
       <c r="U25" s="1"/>
@@ -4566,7 +4912,9 @@
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
+      <c r="B39" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4599,7 +4947,9 @@
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
+      <c r="B40" s="1" t="s">
+        <v>40</v>
+      </c>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
@@ -5061,7 +5411,9 @@
     </row>
     <row r="54" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A54" s="1"/>
-      <c r="B54" s="1"/>
+      <c r="B54" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -5094,7 +5446,9 @@
     </row>
     <row r="55" spans="1:31" x14ac:dyDescent="0.4">
       <c r="A55" s="1"/>
-      <c r="B55" s="1"/>
+      <c r="B55" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
@@ -6061,7 +6415,7 @@
   <dimension ref="A1:Z52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
